--- a/src/main/java/com/amazon/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/amazon/qa/testdata/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\FreeCRM\src\main\java\com\amazon\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\Amazon\src\main\java\com\amazon\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBED27A-D262-4439-B91A-3AF8917E8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA3276-4F7F-4435-B8BF-E51C8040AFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2916" yWindow="2208" windowWidth="17280" windowHeight="8964" xr2:uid="{8D02C359-4A90-40BB-9684-5D919C2C77F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8D02C359-4A90-40BB-9684-5D919C2C77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="searchData" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
